--- a/20-21_KBL_stats.xlsx
+++ b/20-21_KBL_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project\2025\기타\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3B5664-FE92-4910-9CDD-EA109CBC8509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC7434D-89B5-47E7-9D63-24774360A9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C857A6F3-DAC3-47BF-9FFB-2634F9EBE6C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C857A6F3-DAC3-47BF-9FFB-2634F9EBE6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="260">
   <si>
     <t>Season</t>
   </si>
@@ -833,6 +833,10 @@
     <t>2020-21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>외국인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1400,10 +1404,10 @@
   <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="BO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AX79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BQ19" sqref="BQ19"/>
+      <selection pane="bottomRight" activeCell="BN104" sqref="BN104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11098,7 +11102,7 @@
         <v>9.8959330907233607</v>
       </c>
       <c r="BO43" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="BP43" s="18"/>
     </row>
